--- a/SO SACH - LA/NH Q11 - Q4 - LA/App/Thu NH.xlsx
+++ b/SO SACH - LA/NH Q11 - Q4 - LA/App/Thu NH.xlsx
@@ -1471,10 +1471,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -1509,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.75" customHeight="1">
+    <row r="4" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B4" s="23">
         <v>1</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>107065.8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="24.75" customHeight="1">
+    <row r="6" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B6" s="23">
         <v>3</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>757.8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.75" customHeight="1">
+    <row r="13" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B13" s="23">
         <v>10</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>20919.3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.75" customHeight="1">
+    <row r="15" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B15" s="23">
         <v>12</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>49339.16</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="24.75" customHeight="1">
+    <row r="17" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B17" s="23">
         <v>14</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>43399.85</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="24.75" customHeight="1">
+    <row r="18" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B18" s="23">
         <v>15</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>101270.34</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="24.75" customHeight="1">
+    <row r="20" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B20" s="23">
         <v>17</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>15542.98</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="24.75" customHeight="1">
+    <row r="22" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B22" s="23">
         <v>19</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>3211.3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="24.75" customHeight="1">
+    <row r="24" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B24" s="23">
         <v>21</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>33051.99</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="24.75" customHeight="1">
+    <row r="26" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B26" s="23">
         <v>23</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>63758.62</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="24.75" customHeight="1">
+    <row r="27" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B27" s="23">
         <v>24</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>22521.1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="24.75" customHeight="1">
+    <row r="29" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B29" s="23">
         <v>26</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>98308.24</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="24.75" customHeight="1">
+    <row r="30" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B30" s="23">
         <v>27</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>4672.29</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="24.75" customHeight="1">
+    <row r="31" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B31" s="23">
         <v>28</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>22938.62</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="24.75" customHeight="1">
+    <row r="32" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B32" s="23">
         <v>29</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>1112.99</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="24.75" customHeight="1">
+    <row r="33" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B33" s="23">
         <v>30</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>57658.62</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="24.75" customHeight="1">
+    <row r="34" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B34" s="23">
         <v>31</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>2908.86</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="24.75" customHeight="1">
+    <row r="35" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B35" s="23">
         <v>32</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>22858.62</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="24.75" customHeight="1">
+    <row r="36" spans="2:5" ht="24.75" hidden="1" customHeight="1">
       <c r="B36" s="23">
         <v>33</v>
       </c>
@@ -2031,7 +2032,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F39"/>
+  <autoFilter ref="A3:F39">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Markov - Thu tiền hàng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B41:D41"/>
